--- a/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
+++ b/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K1_249_24\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\K1\245\Группа 141-ПИо\Гончаров\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27685FF3-C9C7-48D8-A3C7-39BD6DCB9FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AEC29-8CC3-46FB-A815-EEDE66C000EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
+    <sheet name="данные" sheetId="1" r:id="rId1"/>
     <sheet name="Ответы" sheetId="2" r:id="rId2"/>
     <sheet name="таблицы" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_исходныеданныеA1F2011" hidden="1">'исходные данные'!$A$1:$F$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'исходные данные'!$A$1:$F$1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_исходныеданныеA1F2011" hidden="1">данные!$A$1:$F$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">данные!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
-    <pivotCache cacheId="54" r:id="rId5"/>
-    <pivotCache cacheId="55" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="53">
   <si>
     <t>пол</t>
   </si>
@@ -166,12 +166,69 @@
   <si>
     <t>накопленная частота</t>
   </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Детерминированная выборка. </t>
+  </si>
+  <si>
+    <t>Выборка маленькая, возможно отклонение средних характеристик выборки от средних характеристик генеральной совокупности.</t>
+  </si>
+  <si>
+    <t>Предлагаю проводить опрос в разное время и в разных аэропортах, это увеличит разнообразие выборки</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Возраст симметричен, доход  - нет.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Среднее число полетов</t>
+  </si>
+  <si>
+    <t>мужчины</t>
+  </si>
+  <si>
+    <t>женщины</t>
+  </si>
+  <si>
+    <t>Судя по данным, мужчины в среднем летают чаще</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>личные</t>
+  </si>
+  <si>
+    <t>Цель полета не сильно влияет на частоту</t>
+  </si>
+  <si>
+    <t>срзнач</t>
+  </si>
+  <si>
+    <t>дисперсия</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +293,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -326,9 +392,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,6 +414,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -363,12 +435,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,74 +518,224 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -806,224 +1028,74 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2956,7 +3028,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>таблицы!$L$3</c15:sqref>
@@ -2983,7 +3055,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>таблицы!$K$4:$K$16</c15:sqref>
@@ -3037,7 +3109,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>таблицы!$L$4:$L$16</c15:sqref>
@@ -3089,7 +3161,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-502C-40E8-9388-00040CBDE6E2}"/>
                   </c:ext>
@@ -3675,7 +3747,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>таблицы!$Q$4:$Q$15</c15:sqref>
@@ -3778,7 +3850,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9233-4CF3-8FE0-CE94E2BDE27B}"/>
                   </c:ext>
@@ -4012,8 +4084,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Накопленная частота </a:t>
+              <a:t> задание. Накопленная частота </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8011,7 +8087,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Микушева Юлия" refreshedDate="44837.61152604167" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200" xr:uid="{BCE5AA43-F487-4161-B1D2-502AB37F61F0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F201" sheet="исходные данные"/>
+    <worksheetSource ref="A1:F201" sheet="данные"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Количество полетов за последний год" numFmtId="0">
@@ -9803,7 +9879,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E6717E4-E27F-4DD1-9BCF-3298363FE0D3}" name="Сводная таблица10" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Цель полета" colHeaderCaption="Самая важная характеристика">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E6717E4-E27F-4DD1-9BCF-3298363FE0D3}" name="Сводная таблица10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Цель полета" colHeaderCaption="Самая важная характеристика">
   <location ref="A16:E20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9856,80 +9932,80 @@
     <dataField name=" " fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="30">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="17">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="7">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10007,7 +10083,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{867EDEF8-793D-444D-936B-FCE80984F98A}" name="Сводная таблица9" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption=" Самая важная характеристика">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{867EDEF8-793D-444D-936B-FCE80984F98A}" name="Сводная таблица9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption=" Самая важная характеристика">
   <location ref="A10:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -10060,80 +10136,80 @@
     <dataField name="  " fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="40">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="34">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="24">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10211,7 +10287,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BFA5916-8AB7-4FD1-8C52-08FF1FF4B646}" name="Сводная таблица8" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption="Цель полета">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BFA5916-8AB7-4FD1-8C52-08FF1FF4B646}" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption="Цель полета">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -10265,80 +10341,80 @@
     <dataField name=" " fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="50">
+    <format dxfId="59">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="57">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="56">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="55">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="54">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="47">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="45">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="44">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10703,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10715,7 +10791,7 @@
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -10742,6 +10818,9 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -10758,60 +10837,68 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <f>IF(B2="мужчина",1,0)</f>
+        <v>0</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="11"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">IF(B3="мужчина",1,0)</f>
+        <v>0</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="11"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -10824,24 +10911,28 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>54</v>
       </c>
       <c r="F4" s="1">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -10854,24 +10945,28 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>54</v>
       </c>
       <c r="F5" s="1">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10884,24 +10979,28 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>54</v>
       </c>
       <c r="F6" s="1">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="11"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10914,268 +11013,304 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>54</v>
       </c>
       <c r="F7" s="1">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="11"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="11"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="11"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="11"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="11"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F13" s="1">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="11"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="11"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="11"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -11187,25 +11322,29 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="11"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -11217,21 +11356,25 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -11244,13 +11387,17 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>57</v>
       </c>
       <c r="F18" s="1">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -11274,13 +11421,17 @@
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>57</v>
       </c>
       <c r="F19" s="1">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -11304,13 +11455,17 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>57</v>
       </c>
       <c r="F20" s="1">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -11334,13 +11489,17 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>57</v>
       </c>
       <c r="F21" s="1">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -11354,13 +11513,17 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>57</v>
       </c>
       <c r="F22" s="1">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -11374,58 +11537,70 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>57</v>
       </c>
       <c r="F23" s="1">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -11437,15 +11612,19 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -11457,18 +11636,22 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -11477,18 +11660,22 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -11497,50 +11684,62 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F30" s="1">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -11548,19 +11747,23 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F32" s="1">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -11568,24 +11771,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -11594,18 +11801,22 @@
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F34" s="1">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -11614,13 +11825,17 @@
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F35" s="1">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11637,10 +11852,14 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F36" s="1">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -11657,10 +11876,14 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F37" s="1">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -11668,21 +11891,24 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>81</v>
       </c>
       <c r="F38" s="1">
-        <v>27</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -11690,65 +11916,74 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>81</v>
       </c>
       <c r="F39" s="1">
-        <v>27</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F40" s="1">
-        <v>30</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F41" s="1">
-        <v>30</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -11756,21 +11991,24 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1">
-        <v>31</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -11778,21 +12016,24 @@
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F43" s="1">
-        <v>31</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -11800,7 +12041,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -11809,12 +12050,15 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="F44" s="1">
-        <v>36</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -11822,7 +12066,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -11831,12 +12075,15 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="F45" s="1">
-        <v>36</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -11844,21 +12091,24 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="F46" s="1">
-        <v>43</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -11866,21 +12116,24 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="F47" s="1">
-        <v>43</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -11894,15 +12147,18 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1">
-        <v>49</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -11916,15 +12172,18 @@
         <v>5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1">
-        <v>49</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -11941,12 +12200,15 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F50" s="1">
-        <v>50</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -11963,12 +12225,15 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F51" s="1">
-        <v>50</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -11976,21 +12241,24 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F52" s="1">
-        <v>59</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -11998,21 +12266,24 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F53" s="1">
-        <v>59</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -12026,15 +12297,18 @@
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F54" s="1">
-        <v>34</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -12048,20 +12322,23 @@
         <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F55" s="1">
-        <v>34</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -12073,17 +12350,20 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F56" s="1">
-        <v>44</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4</v>
@@ -12095,17 +12375,20 @@
         <v>9</v>
       </c>
       <c r="E57">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F57" s="1">
-        <v>44</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
@@ -12114,20 +12397,23 @@
         <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1">
-        <v>44</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
@@ -12136,15 +12422,18 @@
         <v>5</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F59" s="1">
-        <v>44</v>
-      </c>
-      <c r="H59" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -12161,12 +12450,15 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F60" s="1">
-        <v>41</v>
-      </c>
-      <c r="H60" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -12183,12 +12475,15 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F61" s="1">
-        <v>41</v>
-      </c>
-      <c r="H61" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -12196,7 +12491,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -12205,12 +12500,15 @@
         <v>6</v>
       </c>
       <c r="E62">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F62" s="1">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -12218,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -12227,12 +12525,15 @@
         <v>6</v>
       </c>
       <c r="E63">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F63" s="1">
-        <v>21</v>
-      </c>
-      <c r="H63" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -12246,15 +12547,18 @@
         <v>5</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F64" s="1">
-        <v>24</v>
-      </c>
-      <c r="H64" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -12268,59 +12572,68 @@
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F65" s="1">
-        <v>24</v>
-      </c>
-      <c r="H65" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F66" s="1">
-        <v>26</v>
-      </c>
-      <c r="H66" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F67" s="1">
-        <v>26</v>
-      </c>
-      <c r="H67" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">IF(B67="мужчина",1,0)</f>
+        <v>1</v>
+      </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -12334,15 +12647,18 @@
         <v>5</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F68" s="1">
-        <v>30</v>
-      </c>
-      <c r="H68" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -12356,15 +12672,18 @@
         <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F69" s="1">
-        <v>30</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -12378,20 +12697,23 @@
         <v>5</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F70" s="1">
-        <v>42</v>
-      </c>
-      <c r="H70" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
@@ -12403,17 +12725,20 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F71" s="1">
-        <v>42</v>
-      </c>
-      <c r="H71" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -12422,15 +12747,18 @@
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>108</v>
       </c>
       <c r="F72" s="1">
-        <v>42</v>
-      </c>
-      <c r="H72" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -12444,20 +12772,23 @@
         <v>5</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>108</v>
       </c>
       <c r="F73" s="1">
-        <v>42</v>
-      </c>
-      <c r="H73" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -12466,20 +12797,23 @@
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E74">
         <v>108</v>
       </c>
       <c r="F74" s="1">
-        <v>45</v>
-      </c>
-      <c r="H74" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
@@ -12488,15 +12822,18 @@
         <v>5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <v>108</v>
       </c>
       <c r="F75" s="1">
-        <v>45</v>
-      </c>
-      <c r="H75" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -12510,15 +12847,18 @@
         <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>108</v>
       </c>
       <c r="F76" s="1">
-        <v>50</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -12532,15 +12872,18 @@
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>108</v>
       </c>
       <c r="F77" s="1">
-        <v>50</v>
-      </c>
-      <c r="H77" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -12554,15 +12897,18 @@
         <v>5</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78">
         <v>108</v>
       </c>
       <c r="F78" s="1">
-        <v>51</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -12576,15 +12922,18 @@
         <v>5</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>108</v>
       </c>
       <c r="F79" s="1">
-        <v>51</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -12604,9 +12953,12 @@
         <v>108</v>
       </c>
       <c r="F80" s="1">
-        <v>52</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -12626,9 +12978,12 @@
         <v>108</v>
       </c>
       <c r="F81" s="1">
-        <v>52</v>
-      </c>
-      <c r="H81" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -12648,9 +13003,12 @@
         <v>108</v>
       </c>
       <c r="F82" s="1">
-        <v>56</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -12670,9 +13028,12 @@
         <v>108</v>
       </c>
       <c r="F83" s="1">
-        <v>56</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -12680,7 +13041,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>5</v>
@@ -12692,9 +13053,12 @@
         <v>108</v>
       </c>
       <c r="F84" s="1">
-        <v>59</v>
-      </c>
-      <c r="H84" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -12702,7 +13066,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>5</v>
@@ -12714,9 +13078,12 @@
         <v>108</v>
       </c>
       <c r="F85" s="1">
-        <v>59</v>
-      </c>
-      <c r="H85" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -12738,7 +13105,10 @@
       <c r="F86" s="1">
         <v>35</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -12760,7 +13130,10 @@
       <c r="F87" s="1">
         <v>35</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -12768,21 +13141,24 @@
         <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F88" s="1">
-        <v>30</v>
-      </c>
-      <c r="H88" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -12790,26 +13166,29 @@
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F89" s="1">
-        <v>30</v>
-      </c>
-      <c r="H89" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4</v>
@@ -12818,20 +13197,23 @@
         <v>5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F90" s="1">
-        <v>34</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
@@ -12840,20 +13222,23 @@
         <v>5</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F91" s="1">
-        <v>34</v>
-      </c>
-      <c r="H91" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
@@ -12865,17 +13250,20 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="F92" s="1">
-        <v>62</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>4</v>
@@ -12887,12 +13275,15 @@
         <v>7</v>
       </c>
       <c r="E93">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="F93" s="1">
-        <v>62</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -12900,21 +13291,24 @@
         <v>4</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F94" s="1">
-        <v>56</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -12922,29 +13316,32 @@
         <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F95" s="1">
-        <v>56</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>5</v>
@@ -12953,20 +13350,23 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F96" s="1">
-        <v>35</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>5</v>
@@ -12975,17 +13375,20 @@
         <v>7</v>
       </c>
       <c r="E97">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1">
-        <v>35</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
@@ -12997,17 +13400,20 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1">
-        <v>26</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>4</v>
@@ -13019,17 +13425,20 @@
         <v>9</v>
       </c>
       <c r="E99">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F99" s="1">
-        <v>26</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -13038,20 +13447,23 @@
         <v>5</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="F100" s="1">
-        <v>29</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>4</v>
@@ -13060,20 +13472,23 @@
         <v>5</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="F101" s="1">
-        <v>29</v>
-      </c>
-      <c r="H101" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>4</v>
@@ -13085,17 +13500,20 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F102" s="1">
-        <v>60</v>
-      </c>
-      <c r="H102" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>4</v>
@@ -13107,12 +13525,15 @@
         <v>6</v>
       </c>
       <c r="E103">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F103" s="1">
-        <v>60</v>
-      </c>
-      <c r="H103" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -13134,7 +13555,10 @@
       <c r="F104" s="1">
         <v>32</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -13156,15 +13580,18 @@
       <c r="F105" s="1">
         <v>32</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>5</v>
@@ -13173,20 +13600,23 @@
         <v>9</v>
       </c>
       <c r="E106">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="F106" s="1">
-        <v>39</v>
-      </c>
-      <c r="H106" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>5</v>
@@ -13195,20 +13625,23 @@
         <v>9</v>
       </c>
       <c r="E107">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="F107" s="1">
-        <v>39</v>
-      </c>
-      <c r="H107" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>5</v>
@@ -13217,20 +13650,23 @@
         <v>7</v>
       </c>
       <c r="E108">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="F108" s="1">
-        <v>58</v>
-      </c>
-      <c r="H108" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>5</v>
@@ -13239,17 +13675,20 @@
         <v>7</v>
       </c>
       <c r="E109">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="F109" s="1">
-        <v>58</v>
-      </c>
-      <c r="H109" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>4</v>
@@ -13261,17 +13700,20 @@
         <v>9</v>
       </c>
       <c r="E110">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F110" s="1">
-        <v>64</v>
-      </c>
-      <c r="H110" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>4</v>
@@ -13283,61 +13725,70 @@
         <v>9</v>
       </c>
       <c r="E111">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F111" s="1">
-        <v>64</v>
-      </c>
-      <c r="H111" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112">
         <v>186</v>
       </c>
       <c r="F112" s="1">
-        <v>23</v>
-      </c>
-      <c r="H112" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
         <v>186</v>
       </c>
       <c r="F113" s="1">
-        <v>23</v>
-      </c>
-      <c r="H113" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -13346,20 +13797,23 @@
         <v>5</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F114" s="1">
-        <v>28</v>
-      </c>
-      <c r="H114" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>4</v>
@@ -13368,20 +13822,23 @@
         <v>5</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F115" s="1">
-        <v>28</v>
-      </c>
-      <c r="H115" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -13390,20 +13847,23 @@
         <v>5</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F116" s="1">
-        <v>37</v>
-      </c>
-      <c r="H116" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>4</v>
@@ -13412,20 +13872,23 @@
         <v>5</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F117" s="1">
-        <v>37</v>
-      </c>
-      <c r="H117" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>4</v>
@@ -13437,17 +13900,20 @@
         <v>6</v>
       </c>
       <c r="E118">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F118" s="1">
-        <v>59</v>
-      </c>
-      <c r="H118" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
@@ -13459,17 +13925,20 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F119" s="1">
-        <v>59</v>
-      </c>
-      <c r="H119" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>4</v>
@@ -13481,17 +13950,20 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F120" s="1">
-        <v>31</v>
-      </c>
-      <c r="H120" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>4</v>
@@ -13503,12 +13975,15 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F121" s="1">
-        <v>31</v>
-      </c>
-      <c r="H121" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -13530,7 +14005,10 @@
       <c r="F122" s="1">
         <v>57</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -13552,12 +14030,15 @@
       <c r="F123" s="1">
         <v>57</v>
       </c>
-      <c r="H123" s="1"/>
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>4</v>
@@ -13566,20 +14047,23 @@
         <v>5</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F124" s="1">
-        <v>35</v>
-      </c>
-      <c r="H124" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>4</v>
@@ -13588,20 +14072,23 @@
         <v>5</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F125" s="1">
-        <v>35</v>
-      </c>
-      <c r="H125" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -13610,20 +14097,23 @@
         <v>5</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126">
         <v>240</v>
       </c>
       <c r="F126" s="1">
-        <v>49</v>
-      </c>
-      <c r="H126" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>4</v>
@@ -13632,15 +14122,18 @@
         <v>5</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127">
         <v>240</v>
       </c>
       <c r="F127" s="1">
-        <v>49</v>
-      </c>
-      <c r="H127" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -13662,7 +14155,10 @@
       <c r="F128" s="1">
         <v>35</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -13684,12 +14180,15 @@
       <c r="F129" s="1">
         <v>35</v>
       </c>
-      <c r="H129" s="1"/>
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>10</v>
@@ -13698,20 +14197,23 @@
         <v>8</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F130" s="1">
-        <v>39</v>
-      </c>
-      <c r="H130" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>10</v>
@@ -13720,15 +14222,18 @@
         <v>8</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F131" s="1">
-        <v>39</v>
-      </c>
-      <c r="H131" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="2">IF(B131="мужчина",1,0)</f>
+        <v>0</v>
+      </c>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -13750,7 +14255,10 @@
       <c r="F132" s="1">
         <v>25</v>
       </c>
-      <c r="H132" s="1"/>
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -13772,7 +14280,10 @@
       <c r="F133" s="1">
         <v>25</v>
       </c>
-      <c r="H133" s="1"/>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -13794,7 +14305,10 @@
       <c r="F134" s="1">
         <v>40</v>
       </c>
-      <c r="H134" s="1"/>
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -13816,7 +14330,10 @@
       <c r="F135" s="1">
         <v>40</v>
       </c>
-      <c r="H135" s="1"/>
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -13838,7 +14355,10 @@
       <c r="F136" s="1">
         <v>40</v>
       </c>
-      <c r="H136" s="1"/>
+      <c r="H136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -13860,7 +14380,10 @@
       <c r="F137" s="1">
         <v>40</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -13882,7 +14405,10 @@
       <c r="F138" s="1">
         <v>42</v>
       </c>
-      <c r="H138" s="1"/>
+      <c r="H138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -13904,12 +14430,15 @@
       <c r="F139" s="1">
         <v>42</v>
       </c>
-      <c r="H139" s="1"/>
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -13918,20 +14447,23 @@
         <v>8</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F140" s="1">
-        <v>73</v>
-      </c>
-      <c r="H140" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
@@ -13940,20 +14472,23 @@
         <v>8</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F141" s="1">
-        <v>73</v>
-      </c>
-      <c r="H141" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -13962,20 +14497,23 @@
         <v>8</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F142" s="1">
-        <v>25</v>
-      </c>
-      <c r="H142" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>4</v>
@@ -13984,15 +14522,18 @@
         <v>8</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F143" s="1">
-        <v>25</v>
-      </c>
-      <c r="H143" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -14014,7 +14555,10 @@
       <c r="F144" s="1">
         <v>30</v>
       </c>
-      <c r="H144" s="1"/>
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -14036,100 +14580,115 @@
       <c r="F145" s="1">
         <v>30</v>
       </c>
-      <c r="H145" s="1"/>
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F146" s="1">
-        <v>34</v>
-      </c>
-      <c r="H146" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F147" s="1">
-        <v>34</v>
-      </c>
-      <c r="H147" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F148" s="1">
-        <v>35</v>
-      </c>
-      <c r="H148" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F149" s="1">
-        <v>35</v>
-      </c>
-      <c r="H149" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>4</v>
@@ -14138,20 +14697,23 @@
         <v>8</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F150" s="1">
-        <v>37</v>
-      </c>
-      <c r="H150" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>4</v>
@@ -14160,20 +14722,23 @@
         <v>8</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F151" s="1">
-        <v>37</v>
-      </c>
-      <c r="H151" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
@@ -14182,20 +14747,23 @@
         <v>8</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E152">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F152" s="1">
-        <v>26</v>
-      </c>
-      <c r="H152" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
@@ -14204,15 +14772,18 @@
         <v>8</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F153" s="1">
-        <v>26</v>
-      </c>
-      <c r="H153" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -14234,7 +14805,10 @@
       <c r="F154" s="1">
         <v>47</v>
       </c>
-      <c r="H154" s="1"/>
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -14256,100 +14830,115 @@
       <c r="F155" s="1">
         <v>47</v>
       </c>
-      <c r="H155" s="1"/>
+      <c r="H155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E156">
         <v>81</v>
       </c>
       <c r="F156" s="1">
-        <v>47</v>
-      </c>
-      <c r="H156" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E157">
         <v>81</v>
       </c>
       <c r="F157" s="1">
-        <v>47</v>
-      </c>
-      <c r="H157" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E158">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F158" s="1">
-        <v>48</v>
-      </c>
-      <c r="H158" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F159" s="1">
-        <v>48</v>
-      </c>
-      <c r="H159" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>10</v>
@@ -14358,20 +14947,23 @@
         <v>8</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F160" s="1">
-        <v>18</v>
-      </c>
-      <c r="H160" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>10</v>
@@ -14380,15 +14972,18 @@
         <v>8</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F161" s="1">
-        <v>18</v>
-      </c>
-      <c r="H161" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -14396,21 +14991,24 @@
         <v>3</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F162" s="1">
-        <v>34</v>
-      </c>
-      <c r="H162" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -14418,26 +15016,29 @@
         <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F163" s="1">
-        <v>34</v>
-      </c>
-      <c r="H163" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
@@ -14449,17 +15050,20 @@
         <v>6</v>
       </c>
       <c r="E164">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F164" s="1">
-        <v>24</v>
-      </c>
-      <c r="H164" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>4</v>
@@ -14471,12 +15075,15 @@
         <v>6</v>
       </c>
       <c r="E165">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F165" s="1">
-        <v>24</v>
-      </c>
-      <c r="H165" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -14490,15 +15097,18 @@
         <v>8</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F166" s="1">
-        <v>28</v>
-      </c>
-      <c r="H166" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -14512,15 +15122,18 @@
         <v>8</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F167" s="1">
-        <v>28</v>
-      </c>
-      <c r="H167" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -14528,21 +15141,24 @@
         <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F168" s="1">
-        <v>43</v>
-      </c>
-      <c r="H168" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -14550,29 +15166,32 @@
         <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E169">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F169" s="1">
-        <v>43</v>
-      </c>
-      <c r="H169" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>8</v>
@@ -14581,20 +15200,23 @@
         <v>7</v>
       </c>
       <c r="E170">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F170" s="1">
-        <v>53</v>
-      </c>
-      <c r="H170" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>8</v>
@@ -14603,12 +15225,15 @@
         <v>7</v>
       </c>
       <c r="E171">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F171" s="1">
-        <v>53</v>
-      </c>
-      <c r="H171" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -14622,15 +15247,18 @@
         <v>8</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F172" s="1">
-        <v>40</v>
-      </c>
-      <c r="H172" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -14644,20 +15272,23 @@
         <v>8</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F173" s="1">
-        <v>40</v>
-      </c>
-      <c r="H173" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
@@ -14666,20 +15297,23 @@
         <v>8</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F174" s="1">
-        <v>42</v>
-      </c>
-      <c r="H174" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>4</v>
@@ -14688,15 +15322,18 @@
         <v>8</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F175" s="1">
-        <v>42</v>
-      </c>
-      <c r="H175" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -14710,15 +15347,18 @@
         <v>8</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F176" s="1">
-        <v>48</v>
-      </c>
-      <c r="H176" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -14732,15 +15372,18 @@
         <v>8</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F177" s="1">
-        <v>48</v>
-      </c>
-      <c r="H177" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -14748,21 +15391,24 @@
         <v>3</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178">
         <v>132</v>
       </c>
       <c r="F178" s="1">
-        <v>54</v>
-      </c>
-      <c r="H178" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -14770,26 +15416,29 @@
         <v>3</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E179">
         <v>132</v>
       </c>
       <c r="F179" s="1">
-        <v>54</v>
-      </c>
-      <c r="H179" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>4</v>
@@ -14804,14 +15453,17 @@
         <v>159</v>
       </c>
       <c r="F180" s="1">
-        <v>22</v>
-      </c>
-      <c r="H180" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>4</v>
@@ -14826,97 +15478,112 @@
         <v>159</v>
       </c>
       <c r="F181" s="1">
-        <v>22</v>
-      </c>
-      <c r="H181" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J181" s="5"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F182" s="1">
-        <v>28</v>
-      </c>
-      <c r="H182" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J182" s="5"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E183">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F183" s="1">
-        <v>28</v>
-      </c>
-      <c r="H183" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184">
         <v>159</v>
       </c>
       <c r="F184" s="1">
-        <v>47</v>
-      </c>
-      <c r="H184" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E185">
         <v>159</v>
       </c>
       <c r="F185" s="1">
-        <v>47</v>
-      </c>
-      <c r="H185" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -14938,7 +15605,10 @@
       <c r="F186" s="1">
         <v>73</v>
       </c>
-      <c r="H186" s="1"/>
+      <c r="H186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -14960,12 +15630,15 @@
       <c r="F187" s="1">
         <v>73</v>
       </c>
-      <c r="H187" s="1"/>
+      <c r="H187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J187" s="5"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>10</v>
@@ -14977,17 +15650,20 @@
         <v>7</v>
       </c>
       <c r="E188">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F188" s="1">
         <v>47</v>
       </c>
-      <c r="H188" s="1"/>
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>10</v>
@@ -14999,12 +15675,15 @@
         <v>7</v>
       </c>
       <c r="E189">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F189" s="1">
         <v>47</v>
       </c>
-      <c r="H189" s="1"/>
+      <c r="H189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J189" s="5"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -15026,7 +15705,10 @@
       <c r="F190" s="1">
         <v>53</v>
       </c>
-      <c r="H190" s="1"/>
+      <c r="H190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J190" s="5"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -15048,7 +15730,10 @@
       <c r="F191" s="1">
         <v>53</v>
       </c>
-      <c r="H191" s="1"/>
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -15070,7 +15755,10 @@
       <c r="F192" s="1">
         <v>40</v>
       </c>
-      <c r="H192" s="1"/>
+      <c r="H192">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -15092,7 +15780,10 @@
       <c r="F193" s="1">
         <v>40</v>
       </c>
-      <c r="H193" s="1"/>
+      <c r="H193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -15114,12 +15805,15 @@
       <c r="F194" s="1">
         <v>27</v>
       </c>
-      <c r="H194" s="1"/>
+      <c r="H194">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>4</v>
@@ -15128,7 +15822,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E195">
         <v>240</v>
@@ -15136,7 +15830,10 @@
       <c r="F195" s="1">
         <v>27</v>
       </c>
-      <c r="H195" s="1"/>
+      <c r="H195">
+        <f t="shared" ref="H195:H201" si="3">IF(B195="мужчина",1,0)</f>
+        <v>1</v>
+      </c>
       <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -15158,12 +15855,15 @@
       <c r="F196" s="1">
         <v>27</v>
       </c>
-      <c r="H196" s="1"/>
+      <c r="H196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>4</v>
@@ -15172,7 +15872,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197">
         <v>240</v>
@@ -15180,7 +15880,10 @@
       <c r="F197" s="1">
         <v>27</v>
       </c>
-      <c r="H197" s="1"/>
+      <c r="H197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -15202,7 +15905,10 @@
       <c r="F198" s="1">
         <v>26</v>
       </c>
-      <c r="H198" s="1"/>
+      <c r="H198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -15224,7 +15930,10 @@
       <c r="F199" s="1">
         <v>26</v>
       </c>
-      <c r="H199" s="1"/>
+      <c r="H199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -15246,7 +15955,10 @@
       <c r="F200" s="1">
         <v>70</v>
       </c>
-      <c r="H200" s="1"/>
+      <c r="H200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -15268,7 +15980,10 @@
       <c r="F201" s="1">
         <v>70</v>
       </c>
-      <c r="H201" s="1"/>
+      <c r="H201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="J201" s="5"/>
     </row>
   </sheetData>
@@ -15290,13 +16005,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC620B-7E8A-48F0-91B4-BC06E950FA3A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15319,7 +16037,164 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f xml:space="preserve"> "Размах вариации дохода: "&amp; MAX(данные!E2:E201) - MIN(данные!E2:E201)</f>
+        <v>Размах вариации дохода: 282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f xml:space="preserve"> "Размах вариации возраста: "&amp; MAX(данные!F2:F201) - MIN(данные!F2:F201)</f>
+        <v>Размах вариации возраста: 55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f xml:space="preserve"> "Медиана дохода: "&amp; MEDIAN(данные!E2:E201)</f>
+        <v>Медиана дохода: 108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f xml:space="preserve"> "Медиана возраста: "&amp; MEDIAN(данные!F2:F201)</f>
+        <v>Медиана возраста: 40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"Доверительный интервал доли бизнес: "&amp;CONFIDENCE(0.05, _xlfn.STDEV.S(данные!H2:H201), 202)</f>
+        <v>Доверительный интервал доли бизнес: 0,059863416895653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"Доверительный интервал доли женщин: "&amp;CONFIDENCE(0.05, 0.25, 202)</f>
+        <v>Доверительный интервал доли женщин: 0,0344756461820545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="30">
+        <v>3.9466666666666668</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="30">
+        <f>AVERAGE(данные!A2:A129)</f>
+        <v>3.359375</v>
+      </c>
+      <c r="C29" s="30">
+        <f>AVERAGE(данные!A130:A500)</f>
+        <v>3.1388888888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="30">
+        <f>VAR(данные!A2:A129)</f>
+        <v>4.6414862204724407</v>
+      </c>
+      <c r="C30" s="30">
+        <f>VAR(данные!A130:A529)</f>
+        <v>3.5015649452269169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15328,802 +16203,802 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3374D3-CB31-4CD2-A42C-8EDB7EAA140A}">
   <dimension ref="A2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="15" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" style="15" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="15"/>
-    <col min="8" max="18" width="11.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="11" style="15" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14.5703125" style="14" customWidth="1"/>
+    <col min="2" max="5" width="11.7109375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="14"/>
+    <col min="8" max="18" width="11.7109375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="11" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="22" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="H4" s="20">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="H4" s="19">
         <v>11</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>15</v>
       </c>
-      <c r="J4" s="20">
-        <f t="array" ref="J4:J16">FREQUENCY('исходные данные'!F2:F201,I4:I16)</f>
+      <c r="J4" s="19">
+        <f t="array" ref="J4:J16">FREQUENCY(данные!F2:F201,I4:I16)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f>(I4-H4)/2+H4</f>
         <v>13</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <f>J4/$J$17</f>
         <v>0</v>
       </c>
-      <c r="N4" s="20">
-        <v>1</v>
-      </c>
-      <c r="O4" s="20">
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
         <v>10</v>
       </c>
-      <c r="P4" s="20">
-        <f t="array" ref="P4:P15">FREQUENCY('исходные данные'!E2:E201,O4:O15)</f>
+      <c r="P4" s="19">
+        <f t="array" ref="P4:P15">FREQUENCY(данные!E2:E201,O4:O15)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="19">
         <f>(O4-N4)/2+N4</f>
         <v>5.5</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <f>P4/$P$16</f>
         <v>0</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>16</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>20</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>2</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <f t="shared" ref="K5:K16" si="0">(I5-H5)/2+H5</f>
         <v>18</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f t="shared" ref="L5:L16" si="1">J5/$J$17</f>
         <v>0.01</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>11</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>20</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="19">
         <f t="shared" ref="Q5:Q15" si="2">(O5-N5)/2+N5</f>
         <v>15.5</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <f t="shared" ref="R5:R15" si="3">P5/$P$16</f>
         <v>0</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="21">
         <f>P5+S4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>30</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>20</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>50</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>21</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>25</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>14</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>21</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
         <v>30</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="21">
         <f t="shared" ref="S6:S15" si="4">P6+S5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17">
         <v>98</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>52</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>150</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>26</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>30</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>32</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>31</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>40</v>
       </c>
-      <c r="P7" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="P7" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="21">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>128</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>72</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>200</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>31</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>35</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>32</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>41</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>50</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="21">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>36</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>40</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>22</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>51</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>60</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>34</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="21">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="H10" s="20">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="H10" s="19">
         <v>41</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>45</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>24</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>61</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>70</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>18</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="21">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>46</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>50</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>22</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>71</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>80</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="19">
         <v>2</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <f t="shared" si="2"/>
         <v>75.5</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="21">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>30</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>10</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>50</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>51</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>55</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>18</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>81</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>90</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="19">
         <v>24</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <f t="shared" si="2"/>
         <v>85.5</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="21">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17">
         <v>46</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>36</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>68</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>150</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>56</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>60</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>20</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>91</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>100</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="19">
         <v>12</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <f t="shared" si="2"/>
         <v>95.5</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="21">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>76</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>46</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>78</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>200</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>61</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>65</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>8</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>101</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>110</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <v>32</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f t="shared" si="2"/>
         <v>105.5</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="21">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>66</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>70</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>111</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <v>350</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>74</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f t="shared" si="2"/>
         <v>230.5</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="21">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="H16" s="20">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="H16" s="19">
         <v>71</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>75</v>
       </c>
-      <c r="J16" s="20">
-        <v>4</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="19">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="20">
+      <c r="O16" s="23"/>
+      <c r="P16" s="19">
         <f>SUM(P4:P15)</f>
         <v>200</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19">
         <f>SUM(R4:R15)</f>
         <v>1</v>
       </c>
-      <c r="S16" s="26"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20">
+      <c r="I17" s="23"/>
+      <c r="J17" s="19">
         <f>SUM(J4:J16)</f>
         <v>200</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
         <f>SUM(L4:L16)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>48</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>26</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>54</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>28</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>20</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>24</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>76</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>46</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>78</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>200</v>
       </c>
     </row>

--- a/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
+++ b/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\K1\245\Группа 141-ПИо\Гончаров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work 3\works\Интеллектуальные информационные системы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AEC29-8CC3-46FB-A815-EEDE66C000EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="данные" sheetId="1" r:id="rId1"/>
@@ -21,11 +20,13 @@
     <definedName name="_xlcn.WorksheetConnection_исходныеданныеA1F2011" hidden="1">данные!$A$1:$F$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">данные!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
     <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -40,8 +41,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5AB9F5A8-CDEA-4095-8116-5C1907DF8CB2}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -50,7 +51,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{70714FD1-7725-4B37-9F3A-DDCC9769198E}" name="WorksheetConnection_исходные данные!$A$1:$F$201" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="2" name="WorksheetConnection_исходные данные!$A$1:$F$201" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Диапазон" autoDelete="1">
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
   <si>
     <t>пол</t>
   </si>
@@ -223,12 +224,86 @@
   <si>
     <t>дисперсия</t>
   </si>
+  <si>
+    <t>доверит норм</t>
+  </si>
+  <si>
+    <t>доверит стьюдента</t>
+  </si>
+  <si>
+    <t>предельная ошибка?</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>мужчины почти в 1,9 раза чаще летают с бизнес целью, а не с личой</t>
+  </si>
+  <si>
+    <t>женщины в 1,5 раза</t>
+  </si>
+  <si>
+    <t>связь существует</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>точность для обоих полов оказалась примерно одинакова не важна</t>
+  </si>
+  <si>
+    <t>для женщин в большей части случаев главным оказывался комфорт (0,6), в то время как у мужчин это частота рейсов (0,45)</t>
+  </si>
+  <si>
+    <t>связь существует и хорошо прослеживается</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>при полете по личным целям явной связи не наблюдается</t>
+  </si>
+  <si>
+    <t>при полетах по бизнес целям ващность в 0,4 случаях имеет комфорт и частота рейсов против 0,2 точности</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>женщины в два раза чаще ценят комфорт, чем мужчины</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Ср. число полетов</t>
+  </si>
+  <si>
+    <t>Всего полетов</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение</t>
+  </si>
+  <si>
+    <t>Стд. отклонение</t>
+  </si>
+  <si>
+    <t>интервалы норм</t>
+  </si>
+  <si>
+    <t>интервалы стьюд</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +378,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -372,12 +455,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -420,8 +512,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -435,85 +548,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="120">
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -740,70 +850,60 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1030,70 +1130,900 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1331,6 +2261,1331 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[АНАЛИЗ==22==ПР.xlsx]Ответы!Сводная таблица1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$D$42:$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>бизнес</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$44:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>женщина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>мужчина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$D$44:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D144-467D-8D45-901B8258333E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$E$42:$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>личные цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$44:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>женщина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>мужчина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$E$44:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D144-467D-8D45-901B8258333E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="740948240"/>
+        <c:axId val="740942416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="740948240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740942416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740942416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740948240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67151689647039592"/>
+          <c:y val="0.35243123379955793"/>
+          <c:w val="0.28227206163765711"/>
+          <c:h val="0.30789150461621584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[АНАЛИЗ==22==ПР.xlsx]Ответы!Сводная таблица2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$D$65:$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>комфорт</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$67:$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>женщина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>мужчина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$D$67:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B875-4E0E-B96A-44217B32233F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$E$65:$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>точность</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$67:$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>женщина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>мужчина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$E$67:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B875-4E0E-B96A-44217B32233F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$F$65:$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>частота рейсов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$67:$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>женщина</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>мужчина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$F$67:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B875-4E0E-B96A-44217B32233F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="794583728"/>
+        <c:axId val="794579984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="794583728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794579984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794579984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794583728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[АНАЛИЗ==22==ПР.xlsx]Ответы!Сводная таблица3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$D$90:$D$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>комфорт</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$92:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>бизнес</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>личные цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$D$92:$D$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53A2-4A4B-BBE8-BFC6E3DF6349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$E$90:$E$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>точность</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$92:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>бизнес</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>личные цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$E$92:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53A2-4A4B-BBE8-BFC6E3DF6349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ответы!$F$90:$F$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>частота рейсов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ответы!$C$92:$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>бизнес</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>личные цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ответы!$F$92:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53A2-4A4B-BBE8-BFC6E3DF6349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="797433840"/>
+        <c:axId val="797431760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="797433840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797431760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="797431760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797433840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1635,6 +3890,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,6 +3922,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1673,7 +3930,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1724,7 +3980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2103,6 +4359,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2134,6 +4391,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2141,7 +4399,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2192,7 +4449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2571,6 +4828,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2602,6 +4860,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2609,7 +4868,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2660,7 +4918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2700,6 +4958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3288,6 +5547,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3319,6 +5579,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3326,7 +5587,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3361,7 +5621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3401,6 +5661,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3977,6 +6238,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4008,6 +6270,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4015,7 +6278,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4050,7 +6312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4094,6 +6356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4524,6 +6787,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4555,6 +6819,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4562,7 +6827,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4837,6 +7101,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6347,7 +8731,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6551,6 +8935,1515 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -6851,7 +10744,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7356,7 +11249,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7865,14 +11758,109 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>82060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593482</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41031</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>67408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52754</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
@@ -7907,8 +11895,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -7943,8 +11931,8 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
@@ -8085,7 +12073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Микушева Юлия" refreshedDate="44837.61152604167" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200" xr:uid="{BCE5AA43-F487-4161-B1D2-502AB37F61F0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Микушева Юлия" refreshedDate="44837.61152604167" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F201" sheet="данные"/>
   </cacheSource>
@@ -8124,7 +12112,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.618221759258" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4C6CBB08-CE0D-4765-BB99-DBE575F483F7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.618221759258" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Диапазон].[самая важная характеристика].[самая важная характеристика]" caption="самая важная характеристика" numFmtId="0" hierarchy="3" level="1">
@@ -8199,7 +12187,157 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.619421064817" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4E5E5590-E4A5-404C-BBFF-AD84E6A90B25}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.619421064817" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Диапазон].[цель полета].[цель полета]" caption="цель полета" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="2">
+        <s v="бизнес"/>
+        <s v="личные цели"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Диапазон].[самая важная характеристика].[самая важная характеристика]" caption="самая важная характеристика" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="3">
+        <s v="комфорт"/>
+        <s v="точность"/>
+        <s v="частота рейсов"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Число элементов в столбце цель полета]" caption="Число элементов в столбце цель полета" numFmtId="0" hierarchy="9" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="10">
+    <cacheHierarchy uniqueName="[Диапазон].[Количество полетов за последний год]" caption="Количество полетов за последний год" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество полетов за последний год].[All]" allUniqueName="[Диапазон].[Количество полетов за последний год].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[пол]" caption="пол" attribute="1" defaultMemberUniqueName="[Диапазон].[пол].[All]" allUniqueName="[Диапазон].[пол].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[цель полета]" caption="цель полета" attribute="1" defaultMemberUniqueName="[Диапазон].[цель полета].[All]" allUniqueName="[Диапазон].[цель полета].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон].[самая важная характеристика]" caption="самая важная характеристика" attribute="1" defaultMemberUniqueName="[Диапазон].[самая важная характеристика].[All]" allUniqueName="[Диапазон].[самая важная характеристика].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон].[годовой доход, тыс. руб.]" caption="годовой доход, тыс. руб." attribute="1" defaultMemberUniqueName="[Диапазон].[годовой доход, тыс. руб.].[All]" allUniqueName="[Диапазон].[годовой доход, тыс. руб.].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[возраст]" caption="возраст" attribute="1" defaultMemberUniqueName="[Диапазон].[возраст].[All]" allUniqueName="[Диапазон].[возраст].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон]" caption="__XL_Count Диапазон" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце пол]" caption="Число элементов в столбце пол" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце цель полета]" caption="Число элементов в столбце цель полета" measure="1" displayFolder="" measureGroup="Диапазон" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Диапазон" uniqueName="[Диапазон]" caption="Диапазон"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Диапазон" caption="Диапазон"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.618221759258" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Диапазон].[самая важная характеристика].[самая важная характеристика]" caption="самая важная характеристика" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="3">
+        <s v="комфорт"/>
+        <s v="точность"/>
+        <s v="частота рейсов"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Диапазон].[пол].[пол]" caption="пол" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="2">
+        <s v="женщина"/>
+        <s v="мужчина"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Число элементов в столбце пол]" caption="Число элементов в столбце пол" numFmtId="0" hierarchy="8" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="10">
+    <cacheHierarchy uniqueName="[Диапазон].[Количество полетов за последний год]" caption="Количество полетов за последний год" attribute="1" defaultMemberUniqueName="[Диапазон].[Количество полетов за последний год].[All]" allUniqueName="[Диапазон].[Количество полетов за последний год].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[пол]" caption="пол" attribute="1" defaultMemberUniqueName="[Диапазон].[пол].[All]" allUniqueName="[Диапазон].[пол].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон].[цель полета]" caption="цель полета" attribute="1" defaultMemberUniqueName="[Диапазон].[цель полета].[All]" allUniqueName="[Диапазон].[цель полета].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[самая важная характеристика]" caption="самая важная характеристика" attribute="1" defaultMemberUniqueName="[Диапазон].[самая важная характеристика].[All]" allUniqueName="[Диапазон].[самая важная характеристика].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Диапазон].[годовой доход, тыс. руб.]" caption="годовой доход, тыс. руб." attribute="1" defaultMemberUniqueName="[Диапазон].[годовой доход, тыс. руб.].[All]" allUniqueName="[Диапазон].[годовой доход, тыс. руб.].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Диапазон].[возраст]" caption="возраст" attribute="1" defaultMemberUniqueName="[Диапазон].[возраст].[All]" allUniqueName="[Диапазон].[возраст].[All]" dimensionUniqueName="[Диапазон]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Диапазон]" caption="__XL_Count Диапазон" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце пол]" caption="Число элементов в столбце пол" measure="1" displayFolder="" measureGroup="Диапазон" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце цель полета]" caption="Число элементов в столбце цель полета" measure="1" displayFolder="" measureGroup="Диапазон" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Диапазон" uniqueName="[Диапазон]" caption="Диапазон"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Диапазон" caption="Диапазон"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Микушева Юлия" refreshedDate="44837.619421064817" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Диапазон].[цель полета].[цель полета]" caption="цель полета" numFmtId="0" hierarchy="2" level="1">
@@ -9879,7 +14017,696 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E6717E4-E27F-4DD1-9BCF-3298363FE0D3}" name="Сводная таблица10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Цель полета" colHeaderCaption="Самая важная характеристика">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Цель полета" colHeaderCaption="Самая важная характеристика">
+  <location ref="C90:G94" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="79">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="10">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption=" "/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Диапазон]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Пол" colHeaderCaption=" Самая важная характеристика">
+  <location ref="C65:G69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="  " fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="99">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="97">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="10">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="  "/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_исходные данные!$A$1:$F$201">
+        <x15:activeTabTopLevelEntity name="[Диапазон]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Пол" colHeaderCaption="Цель полета">
+  <location ref="C42:F46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" " fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="119">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="117">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="112">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="100">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Цель полета" colHeaderCaption="Самая важная характеристика">
   <location ref="A16:E20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -10082,8 +14909,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{867EDEF8-793D-444D-936B-FCE80984F98A}" name="Сводная таблица9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption=" Самая важная характеристика">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Пол" colHeaderCaption=" Самая важная характеристика">
   <location ref="A10:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -10286,8 +15113,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BFA5916-8AB7-4FD1-8C52-08FF1FF4B646}" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Пол" colHeaderCaption="Цель полета">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Пол" colHeaderCaption="Цель полета">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -10418,32 +15245,6 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10532,23 +15333,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10584,23 +15368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -10776,11 +15543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,7 +15585,7 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="7"/>
@@ -10857,12 +15624,12 @@
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="8"/>
       <c r="U2" s="10"/>
     </row>
@@ -11337,8 +16104,8 @@
       <c r="O16" s="8"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
       <c r="T16" s="8"/>
       <c r="U16" s="10"/>
     </row>
@@ -11367,8 +16134,8 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -15987,7 +20754,7 @@
       <c r="J201" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F1">
     <sortState ref="A2:F201">
       <sortCondition ref="C1"/>
     </sortState>
@@ -16004,213 +20771,738 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC620B-7E8A-48F0-91B4-BC06E950FA3A}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
         <f xml:space="preserve"> "Размах вариации дохода: "&amp; MAX(данные!E2:E201) - MIN(данные!E2:E201)</f>
         <v>Размах вариации дохода: 282</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
         <f xml:space="preserve"> "Размах вариации возраста: "&amp; MAX(данные!F2:F201) - MIN(данные!F2:F201)</f>
         <v>Размах вариации возраста: 55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
         <f xml:space="preserve"> "Медиана дохода: "&amp; MEDIAN(данные!E2:E201)</f>
         <v>Медиана дохода: 108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
         <f xml:space="preserve"> "Медиана возраста: "&amp; MEDIAN(данные!F2:F201)</f>
         <v>Медиана возраста: 40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="str">
-        <f>"Доверительный интервал доли бизнес: "&amp;CONFIDENCE(0.05, _xlfn.STDEV.S(данные!H2:H201), 202)</f>
-        <v>Доверительный интервал доли бизнес: 0,059863416895653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="F15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="26">
+        <f>_xlfn.STDEV.S(данные!A130:A201)</f>
+        <v>1.8712468958496409</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="26">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,F16,D18)</f>
+        <v>0.43222803821007999</v>
+      </c>
+      <c r="J16" s="26">
+        <f>_xlfn.CONFIDENCE.T(0.05,F16,D18)</f>
+        <v>0.43972146273298152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
+        <v>3.359375</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="F17" s="26">
+        <f>_xlfn.STDEV.S(данные!A2:A129)</f>
+        <v>2.1544108754999454</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="26">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,F17,C18)</f>
+        <v>0.37322578394698885</v>
+      </c>
+      <c r="J17" s="26">
+        <f>_xlfn.CONFIDENCE.T(0.05,F17,C18)</f>
+        <v>0.37681634864448993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="24">
+        <v>128</v>
+      </c>
+      <c r="D18" s="24">
+        <v>72</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="26">
+        <f>C17-I17</f>
+        <v>2.9861492160530112</v>
+      </c>
+      <c r="I21" s="26">
+        <f>C17+I17</f>
+        <v>3.7326007839469888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3.359375</v>
+      </c>
+      <c r="D22" s="24">
+        <v>128</v>
+      </c>
+      <c r="E22" s="41">
+        <f>_xlfn.STDEV.S(данные!A2:A129)</f>
+        <v>2.1544108754999454</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="26">
+        <f>D17-I16</f>
+        <v>2.706660850678809</v>
+      </c>
+      <c r="I22" s="26">
+        <f>D17+I16</f>
+        <v>3.5711169270989687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="25">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="D23" s="24">
+        <v>72</v>
+      </c>
+      <c r="E23" s="41">
+        <f>_xlfn.STDEV.S(данные!A130:A201)</f>
+        <v>1.8712468958496409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="24"/>
+      <c r="H24" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="str">
-        <f>"Доверительный интервал доли женщин: "&amp;CONFIDENCE(0.05, 0.25, 202)</f>
-        <v>Доверительный интервал доли женщин: 0,0344756461820545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="26">
+        <f>C17-J17</f>
+        <v>2.98255865135551</v>
+      </c>
+      <c r="I25" s="26">
+        <f>C17+J17</f>
+        <v>3.73619134864449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="26">
+        <f>D17-J16</f>
+        <v>2.6991674261559071</v>
+      </c>
+      <c r="I26" s="26">
+        <f>D17+J16</f>
+        <v>3.5786103516218706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="C29" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D30" s="43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="30">
+      <c r="F30">
+        <f>C31/D31</f>
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="25">
         <v>3.9466666666666668</v>
       </c>
-      <c r="C23" s="30">
+      <c r="D31" s="25">
         <v>1.28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="C35" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D36" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="30">
-        <f>AVERAGE(данные!A2:A129)</f>
+      <c r="C37" s="25">
         <v>3.359375</v>
       </c>
-      <c r="C29" s="30">
-        <f>AVERAGE(данные!A130:A500)</f>
+      <c r="D37" s="25">
         <v>3.1388888888888888</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F37">
+        <f>C37/D37</f>
+        <v>1.0702433628318584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="30">
-        <f>VAR(данные!A2:A129)</f>
+      <c r="C38" s="25">
         <v>4.6414862204724407</v>
       </c>
-      <c r="C30" s="30">
-        <f>VAR(данные!A130:A529)</f>
+      <c r="D38" s="25">
         <v>3.5015649452269169</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="17">
+        <v>30</v>
+      </c>
+      <c r="E44" s="17">
+        <v>20</v>
+      </c>
+      <c r="F44" s="17">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <f>GETPIVOTDATA("пол",$C$42,"пол","женщина","цель полета","бизнес")/GETPIVOTDATA("пол",$C$42,"пол","женщина","цель полета","личные цели")</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17">
+        <v>98</v>
+      </c>
+      <c r="E45" s="17">
+        <v>52</v>
+      </c>
+      <c r="F45" s="17">
+        <v>150</v>
+      </c>
+      <c r="G45">
+        <f>GETPIVOTDATA("пол",$C$42,"пол","мужчина","цель полета","бизнес")/GETPIVOTDATA("пол",$C$42,"пол","мужчина","цель полета","личные цели")</f>
+        <v>1.8846153846153846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="17">
+        <v>128</v>
+      </c>
+      <c r="E46" s="17">
+        <v>72</v>
+      </c>
+      <c r="F46" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="17">
+        <v>30</v>
+      </c>
+      <c r="E67" s="17">
+        <v>10</v>
+      </c>
+      <c r="F67" s="17">
+        <v>10</v>
+      </c>
+      <c r="G67" s="17">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="17">
+        <v>46</v>
+      </c>
+      <c r="E68" s="17">
+        <v>36</v>
+      </c>
+      <c r="F68" s="17">
+        <v>68</v>
+      </c>
+      <c r="G68" s="17">
+        <v>150</v>
+      </c>
+      <c r="I68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="17">
+        <v>76</v>
+      </c>
+      <c r="E69" s="17">
+        <v>46</v>
+      </c>
+      <c r="F69" s="17">
+        <v>78</v>
+      </c>
+      <c r="G69" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[комфорт]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E70">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[точность]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F70">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[частота рейсов]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[комфорт]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")</f>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="E71">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[точность]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")</f>
+        <v>0.24</v>
+      </c>
+      <c r="F71">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[частота рейсов]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")</f>
+        <v>0.45333333333333331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="17">
+        <v>48</v>
+      </c>
+      <c r="E92" s="17">
+        <v>26</v>
+      </c>
+      <c r="F92" s="17">
+        <v>54</v>
+      </c>
+      <c r="G92" s="17">
+        <v>128</v>
+      </c>
+      <c r="I92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="17">
+        <v>28</v>
+      </c>
+      <c r="E93" s="17">
+        <v>20</v>
+      </c>
+      <c r="F93" s="17">
+        <v>24</v>
+      </c>
+      <c r="G93" s="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="17">
+        <v>76</v>
+      </c>
+      <c r="E94" s="17">
+        <v>46</v>
+      </c>
+      <c r="F94" s="17">
+        <v>78</v>
+      </c>
+      <c r="G94" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="C113" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="24">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[комфорт]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[мужчина]")</f>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="33">
+        <f>GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[самая важная характеристика]","[Диапазон].[самая важная характеристика].&amp;[комфорт]","[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")/GETPIVOTDATA("[Measures].[Число элементов в столбце пол]",$C$65,"[Диапазон].[пол]","[Диапазон].[пол].&amp;[женщина]")</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="5">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3374D3-CB31-4CD2-A42C-8EDB7EAA140A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="14" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="14"/>
     <col min="8" max="18" width="11.7109375" style="14" customWidth="1"/>
     <col min="19" max="19" width="11" style="14" customWidth="1"/>
@@ -16218,21 +21510,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
       <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16904,10 +22196,10 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="19">
         <f>SUM(P4:P15)</f>
         <v>200</v>
@@ -16935,10 +22227,10 @@
       <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="19">
         <f>SUM(J4:J16)</f>
         <v>200</v>

--- a/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
+++ b/Интеллектуальные информационные системы/АНАЛИЗ==22==ПР.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="82">
   <si>
     <t>пол</t>
   </si>
@@ -293,6 +293,24 @@
   <si>
     <t>интервалы стьюд</t>
   </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Корреляция</t>
+  </si>
+  <si>
+    <t>полеты/возраст</t>
+  </si>
+  <si>
+    <t>полеты/доход</t>
+  </si>
+  <si>
+    <t>ворзаст/доход</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +319,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -530,8 +548,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -547,19 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2657,6 +2675,1246 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доход </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>таблицы!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>частота </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>таблицы!$Q$4:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>таблицы!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9233-4CF3-8FE0-CE94E2BDE27B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1000888048"/>
+        <c:axId val="1000884768"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>средняя точка интервала</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$Q$4:$Q$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>55.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>65.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>85.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>95.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>105.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>230.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$K$4:$K$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9233-4CF3-8FE0-CE94E2BDE27B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$L$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>относительная частота</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$Q$4:$Q$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>55.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>65.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>75.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>85.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>95.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>105.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>230.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$L$4:$L$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9233-4CF3-8FE0-CE94E2BDE27B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1000888048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000884768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1000884768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000888048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> задание. Накопленная частота </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>таблицы!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>накопленная частота</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>таблицы!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>таблицы!$S$4:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-46A9-4F7D-89E7-62353B652EA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="563194776"/>
+        <c:axId val="563193792"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$P$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>частота </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$P$4:$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>таблицы!$P$4:$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>74</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-46A9-4F7D-89E7-62353B652EA3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="563194776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563193792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563193792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563194776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3598,6 +4856,3214 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>число полетов - возраст</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>данные!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>возраст</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.603995026125094E-3"/>
+                  <c:y val="-0.44685799570725943"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 0,0125x + 2,7624</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>R² = 0,006</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>данные!$F$2:$F$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>данные!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000018F-0CDC-4F56-ABBC-0CFC8A8D4FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1766566080"/>
+        <c:axId val="1766570240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1766566080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766570240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1766570240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766566080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>число полетов - доход</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>данные!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество полетов за последний год</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43753254151531673"/>
+                  <c:y val="0.11496979286070834"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 1,1095e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+                      <a:t>0,0078x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>R² = 0,5892</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>данные!$E$2:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>данные!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6506-40E8-B49D-8F3FEE8233DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1766566080"/>
+        <c:axId val="1766570240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1766566080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766570240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1766570240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1766566080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[АНАЛИЗ==22==ПР.xlsx]таблицы!Сводная таблица8</c:name>
     <c:fmtId val="0"/>
@@ -3622,6 +8088,36 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3980,7 +8476,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4449,7 +8945,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4918,7 +9414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5621,1247 +10117,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Доход </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>таблицы!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>частота </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>таблицы!$Q$4:$Q$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>230.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>таблицы!$P$4:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9233-4CF3-8FE0-CE94E2BDE27B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1000888048"/>
-        <c:axId val="1000884768"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$K$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>средняя точка интервала</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$Q$4:$Q$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>5.5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>15.5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>25.5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>35.5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>45.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>55.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>65.5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>75.5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>85.5</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>95.5</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>105.5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>230.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$K$4:$K$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>73</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-9233-4CF3-8FE0-CE94E2BDE27B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$L$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>относительная частота</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$Q$4:$Q$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>5.5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>15.5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>25.5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>35.5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>45.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>55.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>65.5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>75.5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>85.5</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>95.5</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>105.5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>230.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$L$4:$L$16</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.0000000000000007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.12</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.04</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.02</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-9233-4CF3-8FE0-CE94E2BDE27B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1000888048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000884768"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1000884768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000888048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>5</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t> задание. Накопленная частота </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>таблицы!$S$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>накопленная частота</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>таблицы!$P$4:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>таблицы!$S$4:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-46A9-4F7D-89E7-62353B652EA3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="563194776"/>
-        <c:axId val="563193792"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$P$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>частота </c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$P$4:$P$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>74</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>таблицы!$P$4:$P$15</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>74</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-46A9-4F7D-89E7-62353B652EA3}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="563194776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563193792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="563193792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563194776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7724,8 +11060,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7929,22 +11265,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8049,8 +11386,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8182,19 +11519,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8227,8 +11565,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8432,22 +11770,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8552,8 +11891,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8685,19 +12024,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8730,7 +12070,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9233,7 +12573,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9736,8 +13076,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9764,8 +13104,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9866,7 +13206,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9898,10 +13238,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9941,22 +13281,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10061,8 +13402,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10194,19 +13535,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10220,6 +13562,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10239,8 +13592,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10267,8 +13620,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10369,7 +13722,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10401,10 +13754,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10725,6 +14078,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10744,8 +14108,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10949,23 +14313,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11070,8 +14433,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11203,12 +14566,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -11217,6 +14870,721 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11841,6 +16209,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15245,6 +19677,32 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -15547,7 +20005,7 @@
   <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15624,12 +20082,12 @@
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="8"/>
       <c r="U2" s="10"/>
     </row>
@@ -16104,8 +20562,8 @@
       <c r="O16" s="8"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="8"/>
       <c r="U16" s="10"/>
     </row>
@@ -16134,8 +20592,8 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -20772,16 +25230,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" customWidth="1"/>
@@ -20863,19 +25321,19 @@
       <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="40"/>
       <c r="F15" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -20946,17 +25404,17 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -20984,7 +25442,7 @@
       <c r="D22" s="24">
         <v>128</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="35">
         <f>_xlfn.STDEV.S(данные!A2:A129)</f>
         <v>2.1544108754999454</v>
       </c>
@@ -21010,17 +25468,17 @@
       <c r="D23" s="24">
         <v>72</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="35">
         <f>_xlfn.STDEV.S(данные!A130:A201)</f>
         <v>1.8712468958496409</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24" s="24"/>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -21060,17 +25518,17 @@
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F30">
@@ -21086,30 +25544,30 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="43" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -21124,7 +25582,7 @@
         <v>1.0702433628318584</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -21135,12 +25593,12 @@
         <v>3.5015649452269169</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -21153,7 +25611,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
@@ -21167,7 +25625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
         <v>10</v>
       </c>
@@ -21185,7 +25643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
         <v>4</v>
       </c>
@@ -21202,8 +25660,12 @@
         <f>GETPIVOTDATA("пол",$C$42,"пол","мужчина","цель полета","бизнес")/GETPIVOTDATA("пол",$C$42,"пол","мужчина","цель полета","личные цели")</f>
         <v>1.8846153846153846</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>GETPIVOTDATA("пол",$C$42,"пол","мужчина","цель полета","бизнес")/150</f>
+        <v>0.65333333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
@@ -21217,7 +25679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="31" t="s">
         <v>57</v>
       </c>
@@ -21444,7 +25906,7 @@
         <v>67</v>
       </c>
       <c r="B113" s="24"/>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="37" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
@@ -21472,6 +25934,53 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="25">
+        <f>CORREL(данные!A2:A201,данные!F2:F201)</f>
+        <v>7.7180675525788847E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="25">
+        <f>CORREL(данные!A2:A201,данные!E2:E201)</f>
+        <v>0.83527371964906305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="25">
+        <f>CORREL(данные!F2:F201,данные!E2:E201)</f>
+        <v>-3.1603056479293762E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <f>RSQ(данные!E2:E201,данные!A2:A201)</f>
+        <v>0.69768218673638172</v>
       </c>
     </row>
   </sheetData>
@@ -21492,7 +26001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
@@ -21510,21 +26019,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
       <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22196,10 +26705,10 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="36"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="19">
         <f>SUM(P4:P15)</f>
         <v>200</v>
@@ -22227,10 +26736,10 @@
       <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="19">
         <f>SUM(J4:J16)</f>
         <v>200</v>
